--- a/0000/AriadneData/受注/JU20060008/受注書.xlsx
+++ b/0000/AriadneData/受注/JU20060008/受注書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52168F86-73FF-46A2-B3EB-62D4AE73C4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC39B8AF-C845-4F22-82B5-07E1101C1449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="受注請書表紙" sheetId="53" r:id="rId1"/>
@@ -238,7 +238,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1234取引先名</t>
+    <t>西条工務店南区支店</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -258,7 +258,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現場２</t>
+    <t>事務所応接</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -293,7 +293,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1234TEST担当者</t>
+    <t>橋本和樹</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1386,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D0D6CD-FB67-430A-A5AC-BF450B11F8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4C6325-0D76-4103-B9B5-2C5E47527DB3}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
@@ -1869,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7841D75A-8A1D-4B49-94C5-62E73B4915BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCA4F51-7101-4E01-BD87-D9DCFDC215E8}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
@@ -2528,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363625E3-8373-40B0-9271-0AFA3893FD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A08156C-2F70-4DE7-9DB5-B513979DCE86}">
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
